--- a/ZGN.xlsx
+++ b/ZGN.xlsx
@@ -1,29 +1,285 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\Model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513ECA51-D04C-4B66-929B-A271C387B37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Minh Nguyen Viet Quang</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{3C9B8E68-72AB-44E7-BC8C-A6629621EEDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Minh Nguyen Viet Quang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FX difference from international operations.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Marketing expenses</t>
+  </si>
+  <si>
+    <t>Operating profit</t>
+  </si>
+  <si>
+    <t>Financial income</t>
+  </si>
+  <si>
+    <t>Financial expenses</t>
+  </si>
+  <si>
+    <t>Foreign exchange losses</t>
+  </si>
+  <si>
+    <t>Results from equity investments</t>
+  </si>
+  <si>
+    <t>Profit (loss) before taxes</t>
+  </si>
+  <si>
+    <t>Income taxes</t>
+  </si>
+  <si>
+    <t>Profit (loss)</t>
+  </si>
+  <si>
+    <t>Foreign currency exchange difference</t>
+  </si>
+  <si>
+    <t>Gain (loss) from cash flow hedges</t>
+  </si>
+  <si>
+    <t>Gain (loss) from financial instruments measured at fair value</t>
+  </si>
+  <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>Gain (loss) from defined benefit plans</t>
+  </si>
+  <si>
+    <t>Total income (loss), net of tax</t>
+  </si>
+  <si>
+    <t>Total comprehensive income (loss)</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Right-of-use aassets</t>
+  </si>
+  <si>
+    <t>Investments accounted for the equity method</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Other non-current financial assets</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Derivate financial instruments</t>
+  </si>
+  <si>
+    <t>Tax receivables</t>
+  </si>
+  <si>
+    <t>Other current financial assets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Non-current borrowings</t>
+  </si>
+  <si>
+    <t>Other non-current financial liabilities</t>
+  </si>
+  <si>
+    <t>Non-current lease liabilities</t>
+  </si>
+  <si>
+    <t>Non-current provisions for risks and charges</t>
+  </si>
+  <si>
+    <t>Employee benefits</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Other non-current liabilities</t>
+  </si>
+  <si>
+    <t>Current borrowings</t>
+  </si>
+  <si>
+    <t>Other current financial liabilities</t>
+  </si>
+  <si>
+    <t>Current lease liabilities</t>
+  </si>
+  <si>
+    <t>Derivative financial instruments</t>
+  </si>
+  <si>
+    <t>Current provisions for risks and charges</t>
+  </si>
+  <si>
+    <t>Trade payables and customer advances</t>
+  </si>
+  <si>
+    <t>Tax liabilities</t>
+  </si>
+  <si>
+    <t>Other current liabilities</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Total equity and liabilities</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +302,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +333,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +601,500 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1292402</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1492840</v>
+      </c>
+      <c r="E2">
+        <v>1904549</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-495702</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-564832</v>
+      </c>
+      <c r="E3">
+        <v>-680235</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <f>+SUM(C2:C3)</f>
+        <v>796700</v>
+      </c>
+      <c r="D4" s="4">
+        <f>+SUM(D2:D3)</f>
+        <v>928008</v>
+      </c>
+      <c r="E4" s="4">
+        <f>+SUM(E2:E3)</f>
+        <v>1224314</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-822897</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-695084</v>
+      </c>
+      <c r="E5">
+        <v>-901364</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-67831</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-85147</v>
+      </c>
+      <c r="E6">
+        <v>-114802</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <f>+SUM(C4:C6)</f>
+        <v>-94028</v>
+      </c>
+      <c r="D7" s="4">
+        <f>+SUM(D4:D6)</f>
+        <v>147777</v>
+      </c>
+      <c r="E7" s="4">
+        <f>+SUM(E4:E6)</f>
+        <v>208148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45889</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13320</v>
+      </c>
+      <c r="E8">
+        <v>37282</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-43823</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-54346</v>
+      </c>
+      <c r="E9">
+        <v>-68121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-7791</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-7869</v>
+      </c>
+      <c r="E10">
+        <v>-5262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2794</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2199</v>
+      </c>
+      <c r="E11">
+        <v>-2953</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <f>+SUM(C7:C11)</f>
+        <v>-96959</v>
+      </c>
+      <c r="D12" s="4">
+        <f>+SUM(D7:D11)</f>
+        <v>101081</v>
+      </c>
+      <c r="E12" s="4">
+        <f>+SUM(E7:E11)</f>
+        <v>169094</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-30702</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-35802</v>
+      </c>
+      <c r="E13">
+        <v>-33433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <f>+SUM(C12:C13)</f>
+        <v>-127661</v>
+      </c>
+      <c r="D14" s="4">
+        <f>+SUM(D12:D13)</f>
+        <v>65279</v>
+      </c>
+      <c r="E14" s="4">
+        <f>+SUM(E12:E13)</f>
+        <v>135661</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>40324</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10098</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-15887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-6344</v>
+      </c>
+      <c r="D17" s="3">
+        <v>21744</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-7553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>444</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-1482</v>
+      </c>
+      <c r="E18" s="3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-397</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1092</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <f>+SUM(C16:C18)+C20</f>
+        <v>34027</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21:E21" si="0">+SUM(D16:D18)+D20</f>
+        <v>31452</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>-21780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6">
+        <f>+C14+C21</f>
+        <v>-93634</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:E22" si="1">+D14+D21</f>
+        <v>96731</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
+        <v>113881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ZGN.xlsx
+++ b/ZGN.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0736EACE-1791-4E91-88E7-47214BABDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24E762-10FC-46E6-987D-BA2914359601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15600" activeTab="1" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="FX Rate" sheetId="2" r:id="rId2"/>
+    <sheet name="Financial Statements" sheetId="4" r:id="rId2"/>
+    <sheet name="FX Rate" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>APAC</t>
   </si>
@@ -94,14 +96,212 @@
   </si>
   <si>
     <t>(US$mm, unless stated otherwise)</t>
+  </si>
+  <si>
+    <t>3. Collection pricing to sale takes 18 months to set and can be affected by foreign exchange rates (USD, JPY, HKD, EUR, RMB)</t>
+  </si>
+  <si>
+    <t>4. Zegna's debt is 71% floating rate loans. (EUR284.6mm)</t>
+  </si>
+  <si>
+    <t>5. Zegna has EUR295mm floating rate revolver facility</t>
+  </si>
+  <si>
+    <t>Luxury Textile Platform:</t>
+  </si>
+  <si>
+    <t>Lanificio Zegna</t>
+  </si>
+  <si>
+    <t>Tessitura Novara</t>
+  </si>
+  <si>
+    <t>Pettinatura di Verone</t>
+  </si>
+  <si>
+    <t>Bonotto</t>
+  </si>
+  <si>
+    <t>Cappellificio Cervo</t>
+  </si>
+  <si>
+    <t>Dondo</t>
+  </si>
+  <si>
+    <t>Tessitura Ubertino</t>
+  </si>
+  <si>
+    <t>Filati Biagioli Modesto</t>
+  </si>
+  <si>
+    <t>Luigi Fedeli e Figlio</t>
+  </si>
+  <si>
+    <t>Fully owned</t>
+  </si>
+  <si>
+    <t>PEEL</t>
+  </si>
+  <si>
+    <t>113-2709974-9897869</t>
+  </si>
+  <si>
+    <t>MUMMY</t>
+  </si>
+  <si>
+    <t>113-7654229-2269828</t>
+  </si>
+  <si>
+    <t>LYNPHA</t>
+  </si>
+  <si>
+    <t>113-2301598-8169850</t>
+  </si>
+  <si>
+    <t>COMFY</t>
+  </si>
+  <si>
+    <t>113-2825233-2291434</t>
+  </si>
+  <si>
+    <t>MEYER</t>
+  </si>
+  <si>
+    <t>113-9602993-3133002</t>
+  </si>
+  <si>
+    <t>Instacart</t>
+  </si>
+  <si>
+    <t>Mint Mobile</t>
+  </si>
+  <si>
+    <t>Sumner Market</t>
+  </si>
+  <si>
+    <t>Raising Canes</t>
+  </si>
+  <si>
+    <t>SweetGreen</t>
+  </si>
+  <si>
+    <t>Hmart</t>
+  </si>
+  <si>
+    <t>Frank Pepe</t>
+  </si>
+  <si>
+    <t>Sephora</t>
+  </si>
+  <si>
+    <t>MBTA</t>
+  </si>
+  <si>
+    <t>Wholesale POS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Selling, general and administrative</t>
+  </si>
+  <si>
+    <t>Marketing expenses</t>
+  </si>
+  <si>
+    <t>Operating profit/(loss)</t>
+  </si>
+  <si>
+    <t>Financial income</t>
+  </si>
+  <si>
+    <t>Foreign exchange losses</t>
+  </si>
+  <si>
+    <t>Result from investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Income taxes</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Net revenue</t>
+  </si>
+  <si>
+    <t>Financial expenses</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -261,11 +461,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -300,26 +512,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -338,6 +576,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>172307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>373558</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>39056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCD7A7-4FBA-0F0F-F574-9C65F707FC21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="7792307"/>
+          <a:ext cx="10089058" cy="4629249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,24 +944,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E6D3F9-4A22-4DA9-A9E3-943EF6A4B7A8}">
-  <dimension ref="B1:V34"/>
+  <dimension ref="B1:V78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="7" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -750,11 +1041,37 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="30">
+        <f>+SUM(G4:G6)</f>
+        <v>1292</v>
+      </c>
+      <c r="H3" s="30">
+        <f>+SUM(H4:H6)</f>
+        <v>1493</v>
+      </c>
+      <c r="I3" s="30">
+        <f>+SUM(I4:I6)</f>
+        <v>1905</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
@@ -762,6 +1079,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
+      <c r="G4" s="30">
+        <v>1029</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1163</v>
+      </c>
+      <c r="I4" s="30">
+        <v>1291</v>
+      </c>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
@@ -769,6 +1096,15 @@
         <v>9</v>
       </c>
       <c r="D5" s="6"/>
+      <c r="G5" s="30">
+        <v>263</v>
+      </c>
+      <c r="H5" s="30">
+        <v>330</v>
+      </c>
+      <c r="I5" s="30">
+        <v>378</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -776,6 +1112,11 @@
         <v>10</v>
       </c>
       <c r="D6" s="6"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30">
+        <v>236</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
@@ -783,13 +1124,30 @@
         <v>3</v>
       </c>
       <c r="D7" s="8"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="G9" s="30">
+        <v>1292</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1493</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1905</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
@@ -797,8 +1155,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="I10" s="1">
-        <v>0.41</v>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30">
+        <v>696</v>
+      </c>
+      <c r="H10" s="30">
+        <v>645</v>
+      </c>
+      <c r="I10" s="30">
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
@@ -807,14 +1172,15 @@
       <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.31</v>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30">
+        <v>320.16000000000003</v>
+      </c>
+      <c r="H11" s="30">
+        <v>212.85000000000002</v>
+      </c>
+      <c r="I11" s="30">
+        <v>244.28</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
@@ -823,6 +1189,16 @@
       <c r="D12" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30">
+        <v>54.77498452012383</v>
+      </c>
+      <c r="H12" s="30">
+        <v>65.800368385800397</v>
+      </c>
+      <c r="I12" s="30">
+        <v>78.799999999999983</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
@@ -830,8 +1206,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="I13" s="1">
-        <v>0.35</v>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30">
+        <v>380</v>
+      </c>
+      <c r="H13" s="30">
+        <v>520</v>
+      </c>
+      <c r="I13" s="30">
+        <v>659</v>
       </c>
       <c r="V13" t="s">
         <v>4</v>
@@ -843,8 +1226,15 @@
         <v>2</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="I14" s="1">
-        <v>0.22</v>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30">
+        <v>191</v>
+      </c>
+      <c r="H14" s="30">
+        <v>295</v>
+      </c>
+      <c r="I14" s="30">
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
@@ -853,117 +1243,1046 @@
         <v>3</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="I15" s="1">
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30">
+        <v>25</v>
+      </c>
+      <c r="H15" s="30">
+        <v>33</v>
+      </c>
+      <c r="I15" s="30">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="13"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="G18" s="21">
+        <v>0.53869969040247678</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0.43201607501674483</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0.46</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0.33</v>
+      </c>
+      <c r="I19" s="39">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="39">
+        <v>7.8699690402476763E-2</v>
+      </c>
+      <c r="H20" s="39">
+        <v>0.10201607501674481</v>
+      </c>
+      <c r="I20" s="39">
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="G21" s="21">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0.34829202947086402</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="G22" s="21">
+        <v>0.14783281733746131</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.19758874748827862</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="G23" s="21">
+        <v>1.9349845201238391E-2</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2.2103148024112524E-2</v>
+      </c>
+      <c r="I23" s="21">
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="I19">
-        <v>458.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="17"/>
       <c r="D26" s="13"/>
-      <c r="H26">
-        <f>+SUM(H27:H30)</f>
-        <v>302</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26" si="1">+SUM(I27:I30)</f>
-        <v>390</v>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30">
+        <f>+SUM(I27:I29)</f>
+        <v>1265</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="5"/>
+      <c r="D27" s="32" t="str">
         <f>+C4</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="H27">
-        <v>239</v>
-      </c>
-      <c r="I27">
-        <v>253</v>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30">
+        <v>945.3</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="9" t="str">
-        <f t="shared" ref="C28:C30" si="2">+C5</f>
+      <c r="C28" s="5"/>
+      <c r="D28" s="33" t="str">
+        <f t="shared" ref="D28:D29" si="1">+C5</f>
         <v>Thom Browne</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="H28">
-        <v>63</v>
-      </c>
-      <c r="I28">
-        <v>86</v>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30">
+        <v>183.4</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="5"/>
+      <c r="D29" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Tom Ford</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30">
+        <f>+SUM(I31:I33)</f>
+        <v>458.4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="32" t="str">
+        <f>+D27</f>
+        <v>Ermenegildo Zegna</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30">
+        <v>164.2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="33" t="str">
+        <f t="shared" ref="D32:D33" si="2">+D28</f>
+        <v>Thom Browne</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Tom Ford</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="I29">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="38">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="13"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30">
+        <f>+SUM(H36:H44)</f>
+        <v>239</v>
+      </c>
+      <c r="I35" s="30">
+        <f>+SUM(I36:I44)</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="16" t="str">
+        <f>+C4</f>
+        <v>Ermenegildo Zegna</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30">
+        <v>239</v>
+      </c>
+      <c r="I36" s="30">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="16" t="str">
+        <f>+C5</f>
+        <v>Thom Browne</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30">
+        <f>+SUM(H41:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="30">
+        <f>+SUM(I41:I43)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="16" t="str">
+        <f>+C6</f>
+        <v>Tom Ford</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30">
+        <f>+SUM(I45:I47)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>Other</v>
-      </c>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="13"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30">
+        <f>+SUM(H50:H58)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="30">
+        <f>+SUM(I50:I58)</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="16" t="str">
+        <f>+C36</f>
+        <v>Ermenegildo Zegna</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30">
+        <f>+SUM(I51:I53)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="16" t="str">
+        <f>+C40</f>
+        <v>Thom Browne</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30">
+        <f>+SUM(I55:I57)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
+      <c r="C58" s="17" t="str">
+        <f>+C44</f>
+        <v>Tom Ford</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30">
+        <f>+SUM(I59:I61)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="9"/>
+      <c r="C70" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="I70" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="I71" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="I72" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="I73" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="I74" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="I75" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="I76" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="I77" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="I78" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A5F9C-C8E5-49F5-B365-9FD985C25900}">
+  <dimension ref="B2:S16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <f>+Overview!E2</f>
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2">
+        <f>+Overview!F2</f>
+        <v>2020</v>
+      </c>
+      <c r="E2" s="2">
+        <f>+Overview!G2</f>
+        <v>2021</v>
+      </c>
+      <c r="F2" s="2">
+        <f>+Overview!H2</f>
+        <v>2022</v>
+      </c>
+      <c r="G2" s="2">
+        <f>+Overview!I2</f>
+        <v>2023</v>
+      </c>
+      <c r="H2" s="2">
+        <f>+Overview!J2</f>
+        <v>2024</v>
+      </c>
+      <c r="I2" s="2">
+        <f>+Overview!K2</f>
+        <v>2025</v>
+      </c>
+      <c r="J2" s="2">
+        <f>+Overview!L2</f>
+        <v>2026</v>
+      </c>
+      <c r="K2" s="2">
+        <f>+Overview!M2</f>
+        <v>2027</v>
+      </c>
+      <c r="L2" s="2">
+        <f>+Overview!N2</f>
+        <v>2028</v>
+      </c>
+      <c r="M2" s="2">
+        <f>+Overview!O2</f>
+        <v>2029</v>
+      </c>
+      <c r="N2" s="2">
+        <f>+Overview!P2</f>
+        <v>2030</v>
+      </c>
+      <c r="O2" s="2">
+        <f>+Overview!Q2</f>
+        <v>2031</v>
+      </c>
+      <c r="P2" s="2">
+        <f>+Overview!R2</f>
+        <v>2032</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>+Overview!S2</f>
+        <v>2033</v>
+      </c>
+      <c r="R2" s="2">
+        <f>+Overview!T2</f>
+        <v>2034</v>
+      </c>
+      <c r="S2" s="2">
+        <f>+Overview!U2</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="43">
+        <v>1292402</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1492840</v>
+      </c>
+      <c r="G3" s="43">
+        <v>1904549</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="44">
+        <v>-495702</v>
+      </c>
+      <c r="F4" s="44">
+        <v>-564832</v>
+      </c>
+      <c r="G4" s="44">
+        <v>-680235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="43">
+        <f>+E3+E4</f>
+        <v>796700</v>
+      </c>
+      <c r="F5" s="43">
+        <f>+F3+F4</f>
+        <v>928008</v>
+      </c>
+      <c r="G5" s="43">
+        <f>+G3+G4</f>
+        <v>1224314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="30">
+        <v>-822897</v>
+      </c>
+      <c r="F6" s="30">
+        <v>-695084</v>
+      </c>
+      <c r="G6" s="30">
+        <v>-901364</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="44">
+        <v>-67831</v>
+      </c>
+      <c r="F7" s="44">
+        <v>-85147</v>
+      </c>
+      <c r="G7" s="44">
+        <v>-114802</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="43">
+        <f>+SUM(E5:E7)</f>
+        <v>-94028</v>
+      </c>
+      <c r="F8" s="43">
+        <f>+SUM(F5:F7)</f>
+        <v>147777</v>
+      </c>
+      <c r="G8" s="43">
+        <f>+SUM(G5:G7)</f>
+        <v>208148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="30">
+        <v>45889</v>
+      </c>
+      <c r="F9" s="30">
+        <v>13320</v>
+      </c>
+      <c r="G9" s="30">
+        <v>37282</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="30">
+        <v>-43823</v>
+      </c>
+      <c r="F10" s="30">
+        <v>-54346</v>
+      </c>
+      <c r="G10" s="30">
+        <v>-68121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="30">
+        <v>-7791</v>
+      </c>
+      <c r="F11" s="30">
+        <v>-7869</v>
+      </c>
+      <c r="G11" s="30">
+        <v>-5262</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="44">
+        <v>2794</v>
+      </c>
+      <c r="F12" s="44">
+        <v>2199</v>
+      </c>
+      <c r="G12" s="44">
+        <v>-2953</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46">
+        <f>+SUM(E8:E12)</f>
+        <v>-96959</v>
+      </c>
+      <c r="F13" s="46">
+        <f>+SUM(F8:F12)</f>
+        <v>101081</v>
+      </c>
+      <c r="G13" s="46">
+        <f>+SUM(G8:G12)</f>
+        <v>169094</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="30">
+        <v>-30702</v>
+      </c>
+      <c r="F14" s="30">
+        <v>-35802</v>
+      </c>
+      <c r="G14" s="30">
+        <v>-33433</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42">
+        <f>-E14/E13</f>
+        <v>-0.31664930537649932</v>
+      </c>
+      <c r="F15" s="42">
+        <f>-F14/F13</f>
+        <v>0.35419119320149189</v>
+      </c>
+      <c r="G15" s="42">
+        <f>-G14/G13</f>
+        <v>0.19771842880291435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="43">
+        <f t="shared" ref="E16:G16" si="0">+SUM(E13:E14)</f>
+        <v>-127661</v>
+      </c>
+      <c r="F16" s="43">
+        <f t="shared" si="0"/>
+        <v>65279</v>
+      </c>
+      <c r="G16" s="43">
+        <f>+SUM(G13:G14)</f>
+        <v>135661</v>
+      </c>
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD592D4-8701-4224-A106-86B655B79AA7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -973,4 +2292,171 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DEE4E6-50BF-4E9E-A5F7-90BABAAEE482}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>6.49</v>
+      </c>
+      <c r="C9" s="31">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>9.99</v>
+      </c>
+      <c r="C10" s="31">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>8.16</v>
+      </c>
+      <c r="C11" s="31">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12" s="31">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" s="31">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14" s="31">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" s="31">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16" s="31">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17" s="31">
+        <v>45384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ZGN.xlsx
+++ b/ZGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24E762-10FC-46E6-987D-BA2914359601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D81316-788C-477F-9832-AAE77B6F8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15600" activeTab="1" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>APAC</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>ZEGNA</t>
+  </si>
+  <si>
+    <t>Third Party Brands</t>
   </si>
 </sst>
 </file>
@@ -251,7 +260,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -316,20 +325,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -440,28 +440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -472,47 +450,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -526,35 +504,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -582,15 +599,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>172307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>373558</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>39056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -616,6 +633,50 @@
         <a:xfrm>
           <a:off x="5972175" y="7792307"/>
           <a:ext cx="10089058" cy="4629249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>112257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>354762</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC3C719-93D0-D66A-1F39-5E853C510377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="19733757"/>
+          <a:ext cx="9022512" cy="1421636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,1019 +1005,1370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E6D3F9-4A22-4DA9-A9E3-943EF6A4B7A8}">
-  <dimension ref="B1:V78"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="7" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="8" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="U1" s="19" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="V1" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38">
         <v>2019</v>
       </c>
-      <c r="F2" s="2">
-        <f>+E2+1</f>
+      <c r="G2" s="38">
+        <f>+F2+1</f>
         <v>2020</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:U2" si="0">+F2+1</f>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2:V2" si="0">+G2+1</f>
         <v>2021</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="38">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="38">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="38">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="38">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="38">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="38">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="38">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="38">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="38">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="38">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="38">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="38">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="38">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="U2" s="2">
+      <c r="V2" s="38">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="30">
-        <f>+SUM(G4:G6)</f>
-        <v>1292</v>
-      </c>
-      <c r="H3" s="30">
-        <f>+SUM(H4:H6)</f>
-        <v>1493</v>
-      </c>
-      <c r="I3" s="30">
-        <f>+SUM(I4:I6)</f>
-        <v>1905</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23">
+        <f>+SUM(H9:H10)+H4</f>
+        <v>1292.0050000000001</v>
+      </c>
+      <c r="I3" s="23">
+        <f>+SUM(I9:I10)+I4</f>
+        <v>1492.826</v>
+      </c>
+      <c r="J3" s="23">
+        <f>+SUM(J9:J10)+J4</f>
+        <v>1904.6079999999999</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="G4" s="30">
-        <v>1029</v>
-      </c>
-      <c r="H4" s="30">
-        <v>1163</v>
-      </c>
-      <c r="I4" s="30">
-        <v>1291</v>
-      </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="4"/>
+      <c r="H4" s="23">
+        <f t="shared" ref="H4:I4" si="1">+SUM(H5:H8)</f>
+        <v>1029.0050000000001</v>
+      </c>
+      <c r="I4" s="23">
+        <f t="shared" si="1"/>
+        <v>1162.826</v>
+      </c>
+      <c r="J4" s="23">
+        <f>+SUM(J5:J8)</f>
+        <v>1290.6079999999999</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="H5" s="23">
+        <v>847.31100000000004</v>
+      </c>
+      <c r="I5" s="23">
+        <v>923.94200000000001</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1109.491</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="H6" s="23">
+        <v>102.244</v>
+      </c>
+      <c r="I6" s="23">
+        <v>136.76900000000001</v>
+      </c>
+      <c r="J6" s="23">
+        <v>150.98599999999999</v>
+      </c>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="H7" s="23">
+        <v>74.956999999999994</v>
+      </c>
+      <c r="I7" s="23">
+        <v>97.792000000000002</v>
+      </c>
+      <c r="J7" s="23">
+        <v>25.343</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="H8" s="23">
+        <v>4.4930000000000003</v>
+      </c>
+      <c r="I8" s="23">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="J8" s="23">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="G5" s="30">
+      <c r="D9" s="43"/>
+      <c r="E9" s="4"/>
+      <c r="H9" s="23">
         <v>263</v>
       </c>
-      <c r="H5" s="30">
+      <c r="I9" s="23">
         <v>330</v>
       </c>
-      <c r="I5" s="30">
+      <c r="J9" s="23">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30">
+      <c r="D10" s="42"/>
+      <c r="E10" s="7"/>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="10"/>
+      <c r="H12" s="23">
+        <v>1292</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1493</v>
+      </c>
+      <c r="J12" s="23">
+        <f>+J13+SUM(J16:J18)</f>
+        <v>1904.855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="4"/>
+      <c r="H13" s="23">
+        <v>696</v>
+      </c>
+      <c r="I13" s="23">
+        <v>645</v>
+      </c>
+      <c r="J13" s="23">
+        <v>788.00699999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="H14" s="23">
+        <v>588.87599999999998</v>
+      </c>
+      <c r="I14" s="23">
+        <v>494.11</v>
+      </c>
+      <c r="J14" s="23">
+        <v>595.51499999999999</v>
+      </c>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="E15" s="44"/>
+      <c r="H15" s="23">
+        <f>+H13-H14</f>
+        <v>107.12400000000002</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" ref="I15" si="2">+I13-I14</f>
+        <v>150.88999999999999</v>
+      </c>
+      <c r="J15" s="23">
+        <f>+J13-J14</f>
+        <v>192.49199999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="11"/>
+      <c r="H16" s="23">
+        <v>380</v>
+      </c>
+      <c r="I16" s="23">
+        <v>520</v>
+      </c>
+      <c r="J16" s="23">
+        <v>659</v>
+      </c>
+      <c r="W16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="11"/>
+      <c r="H17" s="23">
+        <v>191</v>
+      </c>
+      <c r="I17" s="23">
+        <v>295</v>
+      </c>
+      <c r="J17" s="23">
+        <v>417.35199999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="12"/>
+      <c r="H18" s="23">
+        <v>25</v>
+      </c>
+      <c r="I18" s="23">
+        <v>33</v>
+      </c>
+      <c r="J18" s="23">
+        <f>37.538+2.958</f>
+        <v>40.495999999999995</v>
+      </c>
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="13"/>
-      <c r="G9" s="30">
-        <v>1292</v>
-      </c>
-      <c r="H9" s="30">
-        <v>1493</v>
-      </c>
-      <c r="I9" s="30">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="3" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="10"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30">
-        <v>696</v>
-      </c>
-      <c r="H10" s="30">
-        <v>645</v>
-      </c>
-      <c r="I10" s="30">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="4"/>
+      <c r="H21" s="18">
+        <v>0.53869969040247678</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.43201607501674483</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30">
-        <v>320.16000000000003</v>
-      </c>
-      <c r="H11" s="30">
-        <v>212.85000000000002</v>
-      </c>
-      <c r="I11" s="30">
-        <v>244.28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12" t="s">
+      <c r="E22" s="45"/>
+      <c r="H22" s="18">
+        <v>0.46</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30">
-        <v>54.77498452012383</v>
-      </c>
-      <c r="H12" s="30">
-        <v>65.800368385800397</v>
-      </c>
-      <c r="I12" s="30">
-        <v>78.799999999999983</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="3" t="s">
+      <c r="E23" s="44"/>
+      <c r="H23" s="18">
+        <v>7.8699690402476763E-2</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.10201607501674481</v>
+      </c>
+      <c r="J23" s="18">
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30">
-        <v>380</v>
-      </c>
-      <c r="H13" s="30">
-        <v>520</v>
-      </c>
-      <c r="I13" s="30">
-        <v>659</v>
-      </c>
-      <c r="V13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="11"/>
+      <c r="H24" s="18">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0.34829202947086402</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30">
-        <v>191</v>
-      </c>
-      <c r="H14" s="30">
-        <v>295</v>
-      </c>
-      <c r="I14" s="30">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="11"/>
+      <c r="H25" s="18">
+        <v>0.14783281733746131</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.19758874748827862</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30">
-        <v>25</v>
-      </c>
-      <c r="H15" s="30">
-        <v>33</v>
-      </c>
-      <c r="I15" s="30">
-        <v>41</v>
-      </c>
-      <c r="L15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="13"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="G18" s="21">
-        <v>0.53869969040247678</v>
-      </c>
-      <c r="H18" s="21">
-        <v>0.43201607501674483</v>
-      </c>
-      <c r="I18" s="21">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="39">
-        <v>0.46</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0.33</v>
-      </c>
-      <c r="I19" s="39">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="39">
-        <v>7.8699690402476763E-2</v>
-      </c>
-      <c r="H20" s="39">
-        <v>0.10201607501674481</v>
-      </c>
-      <c r="I20" s="39">
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="G21" s="21">
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0.34829202947086402</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="G22" s="21">
-        <v>0.14783281733746131</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0.19758874748827862</v>
-      </c>
-      <c r="I22" s="21">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="G23" s="21">
+      <c r="D26" s="46"/>
+      <c r="E26" s="12"/>
+      <c r="H26" s="18">
         <v>1.9349845201238391E-2</v>
       </c>
-      <c r="H23" s="21">
+      <c r="I26" s="18">
         <v>2.2103148024112524E-2</v>
       </c>
-      <c r="I23" s="21">
+      <c r="J26" s="18">
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="13"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30">
-        <f>+SUM(I27:I29)</f>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10"/>
+      <c r="H29" s="23">
+        <f t="shared" ref="H29:I29" si="3">+SUM(H30:H32)</f>
+        <v>851.42899999999997</v>
+      </c>
+      <c r="I29" s="23">
+        <f t="shared" si="3"/>
+        <v>918.20699999999999</v>
+      </c>
+      <c r="J29" s="23">
+        <f>+SUM(J30:J32)</f>
         <v>1265</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="32" t="str">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="13" t="str">
         <f>+C4</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30">
+      <c r="E30" s="10"/>
+      <c r="H30" s="23">
+        <v>712.86199999999997</v>
+      </c>
+      <c r="I30" s="23">
+        <v>772.505</v>
+      </c>
+      <c r="J30" s="23">
         <v>945.3</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="33" t="str">
-        <f t="shared" ref="D28:D29" si="1">+C5</f>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8" t="str">
+        <f>+C9</f>
         <v>Thom Browne</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30">
+      <c r="E31" s="11"/>
+      <c r="H31" s="23">
+        <v>138.56700000000001</v>
+      </c>
+      <c r="I31" s="23">
+        <v>145.702</v>
+      </c>
+      <c r="J31" s="23">
         <v>183.4</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="33" t="str">
-        <f t="shared" si="1"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="9" t="str">
+        <f>+C10</f>
         <v>Tom Ford</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30">
+      <c r="E32" s="12"/>
+      <c r="H32" s="23">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23">
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="3" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30">
-        <f>+SUM(I31:I33)</f>
-        <v>458.4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="32" t="str">
-        <f>+D27</f>
+      <c r="D33" s="39"/>
+      <c r="E33" s="11"/>
+      <c r="H33" s="23">
+        <f t="shared" ref="H33:I33" si="4">+H34+SUM(H39:H40)</f>
+        <v>436.47999999999996</v>
+      </c>
+      <c r="I33" s="23">
+        <f t="shared" si="4"/>
+        <v>570.31000000000006</v>
+      </c>
+      <c r="J33" s="23">
+        <f>+J34+SUM(J39:J40)</f>
+        <v>634.72900000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="13" t="str">
+        <f>+D30</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30">
+      <c r="E34" s="10"/>
+      <c r="H34" s="28">
+        <f t="shared" ref="H34:I34" si="5">+SUM(H35:H38)</f>
+        <v>311.64999999999998</v>
+      </c>
+      <c r="I34" s="28">
+        <f t="shared" si="5"/>
+        <v>385.99800000000005</v>
+      </c>
+      <c r="J34" s="28">
+        <f>+SUM(J35:J38)</f>
+        <v>340.529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="49" t="str">
+        <f>+D5</f>
+        <v>ZEGNA</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="H35" s="23">
+        <v>134.44900000000001</v>
+      </c>
+      <c r="I35" s="23">
+        <v>151.43700000000001</v>
+      </c>
+      <c r="J35" s="23">
         <v>164.2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="33" t="str">
-        <f t="shared" ref="D32:D33" si="2">+D28</f>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="47" t="str">
+        <f t="shared" ref="D36:D38" si="6">+D6</f>
+        <v>Textiles</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="H36" s="23">
+        <v>177.20099999999999</v>
+      </c>
+      <c r="I36" s="23">
+        <v>234.56100000000001</v>
+      </c>
+      <c r="J36" s="23">
+        <v>176.32900000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="47" t="str">
+        <f t="shared" si="6"/>
+        <v>Third Party Brands</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="H37" s="23">
+        <v>0</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0</v>
+      </c>
+      <c r="J37" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>Other</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="H38" s="23">
+        <v>0</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8" t="str">
+        <f>+D31</f>
         <v>Thom Browne</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30">
+      <c r="E39" s="11"/>
+      <c r="H39" s="23">
+        <v>124.83</v>
+      </c>
+      <c r="I39" s="23">
+        <v>184.31200000000001</v>
+      </c>
+      <c r="J39" s="23">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="34" t="str">
-        <f t="shared" si="2"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="9" t="str">
+        <f>+D32</f>
         <v>Tom Ford</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="38">
+      <c r="E40" s="12"/>
+      <c r="H40" s="23">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="28">
         <v>99.2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="13"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30">
-        <f>+SUM(H36:H44)</f>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="10"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23">
+        <f>+SUM(I44:I52)</f>
         <v>239</v>
       </c>
-      <c r="I35" s="30">
-        <f>+SUM(I36:I44)</f>
+      <c r="J43" s="23">
+        <f>+SUM(J44:J52)</f>
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="16" t="str">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="13" t="str">
         <f>+C4</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30">
+      <c r="D44" s="52"/>
+      <c r="E44" s="15"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23">
         <v>239</v>
       </c>
-      <c r="I36" s="30">
+      <c r="J44" s="23">
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="35" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30">
+      <c r="E45" s="25"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="36" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="E46" s="26"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="37" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30">
+      <c r="E47" s="27"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="16" t="str">
-        <f>+C5</f>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="13" t="str">
+        <f>+C9</f>
         <v>Thom Browne</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30">
-        <f>+SUM(H41:H43)</f>
+      <c r="D48" s="52"/>
+      <c r="E48" s="15"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23">
+        <f>+SUM(I49:I51)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="30">
-        <f>+SUM(I41:I43)</f>
+      <c r="J48" s="23">
+        <f>+SUM(J49:J51)</f>
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="35" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30">
+      <c r="E49" s="15"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="36" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="E50" s="50"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="36" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="E51" s="51"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="16" t="str">
-        <f>+C6</f>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8" t="str">
+        <f>+C10</f>
         <v>Tom Ford</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30">
-        <f>+SUM(I45:I47)</f>
+      <c r="D52" s="41"/>
+      <c r="E52" s="50"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23">
+        <f>+SUM(J53:J55)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="35" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30">
+      <c r="E53" s="15"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="36" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30">
+      <c r="E54" s="50"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="13"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30">
-        <f>+SUM(H50:H58)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="30">
-        <f>+SUM(I50:I58)</f>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="16" t="str">
-        <f>+C36</f>
-        <v>Ermenegildo Zegna</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30">
-        <f>+SUM(I51:I53)</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="16" t="str">
-        <f>+C40</f>
-        <v>Thom Browne</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30">
-        <f>+SUM(I55:I57)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="51"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="10"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23">
+        <f>+SUM(I58:I66)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30">
+      <c r="J57" s="23">
+        <f>+SUM(J58:J66)</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="13" t="str">
+        <f>+C44</f>
+        <v>Ermenegildo Zegna</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="15"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23">
+        <f>+SUM(J59:J61)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="3" t="str">
+        <f>+D53</f>
+        <v>APAC</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="50"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="51"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="13" t="str">
+        <f>+C48</f>
+        <v>Thom Browne</v>
+      </c>
+      <c r="D62" s="52"/>
+      <c r="E62" s="15"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23">
+        <f>+SUM(J63:J65)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="36" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30">
+      <c r="E64" s="50"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="36" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30">
+      <c r="E65" s="51"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="17" t="str">
-        <f>+C44</f>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="13" t="str">
+        <f>+C52</f>
         <v>Tom Ford</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30">
-        <f>+SUM(I59:I61)</f>
+      <c r="D66" s="52"/>
+      <c r="E66" s="15"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23">
+        <f>+SUM(J67:J69)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="35" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30">
+      <c r="E67" s="15"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="36" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30">
+      <c r="E68" s="50"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="37" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30">
+      <c r="E69" s="51"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="13"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="16" t="s">
+      <c r="C77" s="14"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="I70" s="22" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="J78" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="I71" s="22" t="s">
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="J79" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="I72" s="1">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="J80" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="14"/>
-      <c r="I73" s="1">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="J81" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="14"/>
-      <c r="I74" s="1">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="J82" s="1">
         <v>0.51</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="I75" s="1">
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="J83" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9" t="s">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="14"/>
-      <c r="I76" s="1">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="J84" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="14"/>
-      <c r="I77" s="1">
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="J85" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="I78" s="1">
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="J86" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -1970,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A5F9C-C8E5-49F5-B365-9FD985C25900}">
   <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,88 +2396,88 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <f>+Overview!E2</f>
+      <c r="C2" s="38">
+        <f>+Overview!F2</f>
         <v>2019</v>
       </c>
-      <c r="D2" s="2">
-        <f>+Overview!F2</f>
+      <c r="D2" s="38">
+        <f>+Overview!G2</f>
         <v>2020</v>
       </c>
-      <c r="E2" s="2">
-        <f>+Overview!G2</f>
+      <c r="E2" s="38">
+        <f>+Overview!H2</f>
         <v>2021</v>
       </c>
-      <c r="F2" s="2">
-        <f>+Overview!H2</f>
+      <c r="F2" s="38">
+        <f>+Overview!I2</f>
         <v>2022</v>
       </c>
-      <c r="G2" s="2">
-        <f>+Overview!I2</f>
+      <c r="G2" s="38">
+        <f>+Overview!J2</f>
         <v>2023</v>
       </c>
-      <c r="H2" s="2">
-        <f>+Overview!J2</f>
+      <c r="H2" s="38">
+        <f>+Overview!K2</f>
         <v>2024</v>
       </c>
-      <c r="I2" s="2">
-        <f>+Overview!K2</f>
+      <c r="I2" s="38">
+        <f>+Overview!L2</f>
         <v>2025</v>
       </c>
-      <c r="J2" s="2">
-        <f>+Overview!L2</f>
+      <c r="J2" s="38">
+        <f>+Overview!M2</f>
         <v>2026</v>
       </c>
-      <c r="K2" s="2">
-        <f>+Overview!M2</f>
+      <c r="K2" s="38">
+        <f>+Overview!N2</f>
         <v>2027</v>
       </c>
-      <c r="L2" s="2">
-        <f>+Overview!N2</f>
+      <c r="L2" s="38">
+        <f>+Overview!O2</f>
         <v>2028</v>
       </c>
-      <c r="M2" s="2">
-        <f>+Overview!O2</f>
+      <c r="M2" s="38">
+        <f>+Overview!P2</f>
         <v>2029</v>
       </c>
-      <c r="N2" s="2">
-        <f>+Overview!P2</f>
+      <c r="N2" s="38">
+        <f>+Overview!Q2</f>
         <v>2030</v>
       </c>
-      <c r="O2" s="2">
-        <f>+Overview!Q2</f>
+      <c r="O2" s="38">
+        <f>+Overview!R2</f>
         <v>2031</v>
       </c>
-      <c r="P2" s="2">
-        <f>+Overview!R2</f>
+      <c r="P2" s="38">
+        <f>+Overview!S2</f>
         <v>2032</v>
       </c>
-      <c r="Q2" s="2">
-        <f>+Overview!S2</f>
+      <c r="Q2" s="38">
+        <f>+Overview!T2</f>
         <v>2033</v>
       </c>
-      <c r="R2" s="2">
-        <f>+Overview!T2</f>
+      <c r="R2" s="38">
+        <f>+Overview!U2</f>
         <v>2034</v>
       </c>
-      <c r="S2" s="2">
-        <f>+Overview!U2</f>
+      <c r="S2" s="38">
+        <f>+Overview!V2</f>
         <v>2035</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="43">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="32">
         <v>1292402</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="32">
         <v>1492840</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="32">
         <v>1904549</v>
       </c>
     </row>
@@ -2073,31 +2485,31 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="33">
         <v>-495702</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="33">
         <v>-564832</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="33">
         <v>-680235</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="43">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="32">
         <f>+E3+E4</f>
         <v>796700</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="32">
         <f>+F3+F4</f>
         <v>928008</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="32">
         <f>+G3+G4</f>
         <v>1224314</v>
       </c>
@@ -2106,13 +2518,13 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="23">
         <v>-822897</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="23">
         <v>-695084</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="23">
         <v>-901364</v>
       </c>
     </row>
@@ -2120,31 +2532,31 @@
       <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="33">
         <v>-67831</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="33">
         <v>-85147</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="33">
         <v>-114802</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="43">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="32">
         <f>+SUM(E5:E7)</f>
         <v>-94028</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="32">
         <f>+SUM(F5:F7)</f>
         <v>147777</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="32">
         <f>+SUM(G5:G7)</f>
         <v>208148</v>
       </c>
@@ -2153,13 +2565,13 @@
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="23">
         <v>45889</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="23">
         <v>13320</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="23">
         <v>37282</v>
       </c>
     </row>
@@ -2167,13 +2579,13 @@
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="23">
         <v>-43823</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="23">
         <v>-54346</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="23">
         <v>-68121</v>
       </c>
     </row>
@@ -2181,13 +2593,13 @@
       <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="23">
         <v>-7791</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="23">
         <v>-7869</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="23">
         <v>-5262</v>
       </c>
     </row>
@@ -2195,31 +2607,31 @@
       <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="33">
         <v>2794</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="33">
         <v>2199</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="33">
         <v>-2953</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35">
         <f>+SUM(E8:E12)</f>
         <v>-96959</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="35">
         <f>+SUM(F8:F12)</f>
         <v>101081</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="35">
         <f>+SUM(G8:G12)</f>
         <v>169094</v>
       </c>
@@ -2228,50 +2640,50 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="23">
         <v>-30702</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="23">
         <v>-35802</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="23">
         <v>-33433</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31">
         <f>-E14/E13</f>
         <v>-0.31664930537649932</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="31">
         <f>-F14/F13</f>
         <v>0.35419119320149189</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="31">
         <f>-G14/G13</f>
         <v>0.19771842880291435</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="43">
-        <f t="shared" ref="E16:G16" si="0">+SUM(E13:E14)</f>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="32">
+        <f t="shared" ref="E16:F16" si="0">+SUM(E13:E14)</f>
         <v>-127661</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="32">
         <f t="shared" si="0"/>
         <v>65279</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="32">
         <f>+SUM(G13:G14)</f>
         <v>135661</v>
       </c>
@@ -2308,7 +2720,7 @@
       <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2316,7 +2728,7 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2324,7 +2736,7 @@
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2332,7 +2744,7 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2340,7 +2752,7 @@
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2364,7 +2776,7 @@
       <c r="B9">
         <v>6.49</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="24">
         <v>45461</v>
       </c>
     </row>
@@ -2375,7 +2787,7 @@
       <c r="B10">
         <v>9.99</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="24">
         <v>45453</v>
       </c>
     </row>
@@ -2386,7 +2798,7 @@
       <c r="B11">
         <v>8.16</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="24">
         <v>45443</v>
       </c>
     </row>
@@ -2397,7 +2809,7 @@
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="24">
         <v>45432</v>
       </c>
     </row>
@@ -2408,7 +2820,7 @@
       <c r="B13">
         <v>16</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="24">
         <v>45427</v>
       </c>
     </row>
@@ -2419,7 +2831,7 @@
       <c r="B14">
         <v>17</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="24">
         <v>45425</v>
       </c>
     </row>
@@ -2430,7 +2842,7 @@
       <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="24">
         <v>45420</v>
       </c>
     </row>
@@ -2441,7 +2853,7 @@
       <c r="B16">
         <v>24</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="24">
         <v>45418</v>
       </c>
     </row>
@@ -2452,7 +2864,7 @@
       <c r="B17">
         <v>90</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="24">
         <v>45384</v>
       </c>
     </row>

--- a/ZGN.xlsx
+++ b/ZGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D81316-788C-477F-9832-AAE77B6F8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92F844-C5A5-4A07-A93C-29C3FD167960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>APAC</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>Third Party Brands</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Asia (Other)</t>
+  </si>
+  <si>
+    <t>Other (+LATAM)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -534,11 +543,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,13 +609,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>172307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>373558</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>39056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -645,13 +653,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>112257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>354762</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1005,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E6D3F9-4A22-4DA9-A9E3-943EF6A4B7A8}">
-  <dimension ref="A1:W86"/>
+  <dimension ref="B1:W88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,22 +1033,12 @@
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="V1" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F2" s="38">
         <v>2019</v>
       </c>
@@ -1109,8 +1107,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1144,13 +1141,12 @@
       <c r="U3" s="22"/>
       <c r="V3" s="22"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="4"/>
       <c r="H4" s="23">
         <f t="shared" ref="H4:I4" si="1">+SUM(H5:H8)</f>
@@ -1166,14 +1162,13 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="44"/>
       <c r="H5" s="23">
         <v>847.31100000000004</v>
       </c>
@@ -1185,8 +1180,7 @@
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -1204,8 +1198,7 @@
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -1223,14 +1216,13 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="43"/>
       <c r="H8" s="23">
         <v>4.4930000000000003</v>
       </c>
@@ -1242,13 +1234,12 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="4"/>
       <c r="H9" s="23">
         <v>263</v>
@@ -1260,13 +1251,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="7"/>
       <c r="H10" s="23">
         <v>0</v>
@@ -1278,18 +1268,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1297,42 +1281,46 @@
       <c r="D12" s="14"/>
       <c r="E12" s="10"/>
       <c r="H12" s="23">
+        <f>+H13+SUM(H17:H19)</f>
         <v>1292</v>
       </c>
       <c r="I12" s="23">
+        <f t="shared" ref="I12:J12" si="2">+I13+SUM(I17:I19)</f>
         <v>1493</v>
       </c>
       <c r="J12" s="23">
-        <f>+J13+SUM(J16:J18)</f>
+        <f t="shared" si="2"/>
         <v>1904.855</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="4"/>
       <c r="H13" s="23">
+        <f t="shared" ref="H13:I13" si="3">+SUM(H14:H16)</f>
         <v>696</v>
       </c>
       <c r="I13" s="23">
+        <f t="shared" si="3"/>
         <v>645</v>
       </c>
       <c r="J13" s="23">
+        <f>+SUM(J14:J16)</f>
         <v>788.00699999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="44"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="23">
         <v>588.87599999999998</v>
       </c>
@@ -1344,1031 +1332,1006 @@
       </c>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="44"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="36"/>
       <c r="H15" s="23">
-        <f>+H13-H14</f>
-        <v>107.12400000000002</v>
+        <v>55.478999999999999</v>
       </c>
       <c r="I15" s="23">
-        <f t="shared" ref="I15" si="2">+I13-I14</f>
-        <v>150.88999999999999</v>
+        <v>65.444999999999993</v>
       </c>
       <c r="J15" s="23">
-        <f>+J13-J14</f>
-        <v>192.49199999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+        <v>84.99</v>
+      </c>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="43"/>
       <c r="H16" s="23">
-        <v>380</v>
+        <v>51.644999999999982</v>
       </c>
       <c r="I16" s="23">
-        <v>520</v>
+        <v>85.444999999999936</v>
       </c>
       <c r="J16" s="23">
-        <v>659</v>
-      </c>
-      <c r="W16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+        <v>107.50199999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="39"/>
+        <v>1</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="H17" s="23">
+        <v>380</v>
+      </c>
+      <c r="I17" s="23">
+        <v>520</v>
+      </c>
+      <c r="J17" s="23">
+        <v>659</v>
+      </c>
+      <c r="W17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="H18" s="23">
         <v>191</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I18" s="23">
         <v>295</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J18" s="23">
         <v>417.35199999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="12"/>
-      <c r="H18" s="23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="23">
         <v>25</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I19" s="23">
         <v>33</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J19" s="23">
         <f>37.538+2.958</f>
         <v>40.495999999999995</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="10"/>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="4"/>
-      <c r="H21" s="18">
+      <c r="D22" s="42"/>
+      <c r="E22" s="4"/>
+      <c r="H22" s="18">
+        <f>+H13/H$12</f>
         <v>0.53869969040247678</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="18">
+        <f t="shared" ref="I22:J22" si="4">+I13/I$12</f>
         <v>0.43201607501674483</v>
       </c>
-      <c r="J21" s="18">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3" t="s">
+      <c r="J22" s="18">
+        <f t="shared" si="4"/>
+        <v>0.41368345622107716</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E22" s="45"/>
-      <c r="H22" s="18">
-        <v>0.46</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0.33</v>
-      </c>
-      <c r="J22" s="18">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="E23" s="44"/>
       <c r="H23" s="18">
-        <v>7.8699690402476763E-2</v>
+        <f t="shared" ref="H23:J23" si="5">+H14/H$12</f>
+        <v>0.45578637770897829</v>
       </c>
       <c r="I23" s="18">
-        <v>0.10201607501674481</v>
+        <f t="shared" si="5"/>
+        <v>0.33095110515740123</v>
       </c>
       <c r="J23" s="18">
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+        <f t="shared" si="5"/>
+        <v>0.3126300952040969</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="H24" s="18">
+        <f t="shared" ref="H24:J24" si="6">+H15/H$12</f>
+        <v>4.2940402476780187E-2</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="6"/>
+        <v>4.3834561286001335E-2</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="6"/>
+        <v>4.4617569316299663E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6" t="str">
+        <f>+D16</f>
+        <v>Asia (Other)</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="H25" s="18">
+        <f t="shared" ref="H25:J25" si="7">+H16/H$12</f>
+        <v>3.9972910216718255E-2</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="7"/>
+        <v>5.7230408573342224E-2</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="7"/>
+        <v>5.6435791700680603E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="11"/>
-      <c r="H24" s="18">
+      <c r="E26" s="11"/>
+      <c r="H26" s="18">
+        <f t="shared" ref="H26:J26" si="8">+H17/H$12</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I26" s="18">
+        <f t="shared" si="8"/>
         <v>0.34829202947086402</v>
       </c>
-      <c r="J24" s="18">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="5" t="s">
+      <c r="J26" s="18">
+        <f t="shared" si="8"/>
+        <v>0.34595809129828781</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="11"/>
-      <c r="H25" s="18">
+      <c r="E27" s="11"/>
+      <c r="H27" s="18">
+        <f t="shared" ref="H27:J27" si="9">+H18/H$12</f>
         <v>0.14783281733746131</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I27" s="18">
+        <f t="shared" si="9"/>
         <v>0.19758874748827862</v>
       </c>
-      <c r="J25" s="18">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="12"/>
-      <c r="H26" s="18">
+      <c r="J27" s="18">
+        <f t="shared" si="9"/>
+        <v>0.21909909153190135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="6" t="str">
+        <f>+C19</f>
+        <v>Other (+LATAM)</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="12"/>
+      <c r="H28" s="18">
+        <f t="shared" ref="H28:J28" si="10">+H19/H$12</f>
         <v>1.9349845201238391E-2</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I28" s="18">
+        <f t="shared" si="10"/>
         <v>2.2103148024112524E-2</v>
       </c>
-      <c r="J26" s="18">
-        <v>2.0000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="13" t="s">
+      <c r="J28" s="18">
+        <f t="shared" si="10"/>
+        <v>2.1259360948733628E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="10"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="10"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="10"/>
-      <c r="H29" s="23">
-        <f t="shared" ref="H29:I29" si="3">+SUM(H30:H32)</f>
+      <c r="D31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="H31" s="23">
+        <f t="shared" ref="H31:I31" si="11">+SUM(H32:H34)</f>
         <v>851.42899999999997</v>
       </c>
-      <c r="I29" s="23">
-        <f t="shared" si="3"/>
+      <c r="I31" s="23">
+        <f t="shared" si="11"/>
         <v>918.20699999999999</v>
       </c>
-      <c r="J29" s="23">
-        <f>+SUM(J30:J32)</f>
+      <c r="J31" s="23">
+        <f>+SUM(J32:J34)</f>
         <v>1265</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="13" t="str">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13" t="str">
         <f>+C4</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="H30" s="23">
+      <c r="E32" s="10"/>
+      <c r="H32" s="23">
         <v>712.86199999999997</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I32" s="23">
         <v>772.505</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J32" s="23">
         <v>945.3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8" t="str">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8" t="str">
         <f>+C9</f>
         <v>Thom Browne</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="H31" s="23">
+      <c r="E33" s="11"/>
+      <c r="H33" s="23">
         <v>138.56700000000001</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I33" s="23">
         <v>145.702</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J33" s="23">
         <v>183.4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="9" t="str">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="9" t="str">
         <f>+C10</f>
         <v>Tom Ford</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="H32" s="23">
+      <c r="E34" s="12"/>
+      <c r="H34" s="23">
         <v>0</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I34" s="23">
         <v>0</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J34" s="23">
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="5" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="11"/>
-      <c r="H33" s="23">
-        <f t="shared" ref="H33:I33" si="4">+H34+SUM(H39:H40)</f>
+      <c r="E35" s="11"/>
+      <c r="H35" s="23">
+        <f t="shared" ref="H35:I35" si="12">+H36+SUM(H41:H42)</f>
         <v>436.47999999999996</v>
       </c>
-      <c r="I33" s="23">
-        <f t="shared" si="4"/>
+      <c r="I35" s="23">
+        <f t="shared" si="12"/>
         <v>570.31000000000006</v>
       </c>
-      <c r="J33" s="23">
-        <f>+J34+SUM(J39:J40)</f>
+      <c r="J35" s="23">
+        <f>+J36+SUM(J41:J42)</f>
         <v>634.72900000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="13" t="str">
-        <f>+D30</f>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="13" t="str">
+        <f>+D32</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="H34" s="28">
-        <f t="shared" ref="H34:I34" si="5">+SUM(H35:H38)</f>
+      <c r="E36" s="10"/>
+      <c r="H36" s="28">
+        <f t="shared" ref="H36:I36" si="13">+SUM(H37:H40)</f>
         <v>311.64999999999998</v>
       </c>
-      <c r="I34" s="28">
-        <f t="shared" si="5"/>
+      <c r="I36" s="28">
+        <f t="shared" si="13"/>
         <v>385.99800000000005</v>
       </c>
-      <c r="J34" s="28">
-        <f>+SUM(J35:J38)</f>
+      <c r="J36" s="28">
+        <f>+SUM(J37:J40)</f>
         <v>340.529</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="49" t="str">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="48" t="str">
         <f>+D5</f>
         <v>ZEGNA</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="H35" s="23">
+      <c r="E37" s="37"/>
+      <c r="H37" s="23">
         <v>134.44900000000001</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I37" s="23">
         <v>151.43700000000001</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J37" s="23">
         <v>164.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="47" t="str">
-        <f t="shared" ref="D36:D38" si="6">+D6</f>
-        <v>Textiles</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="H36" s="23">
-        <v>177.20099999999999</v>
-      </c>
-      <c r="I36" s="23">
-        <v>234.56100000000001</v>
-      </c>
-      <c r="J36" s="23">
-        <v>176.32900000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="47" t="str">
-        <f t="shared" si="6"/>
-        <v>Third Party Brands</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="H37" s="23">
-        <v>0</v>
-      </c>
-      <c r="I37" s="23">
-        <v>0</v>
-      </c>
-      <c r="J37" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="48" t="str">
-        <f t="shared" si="6"/>
-        <v>Other</v>
-      </c>
-      <c r="E38" s="7"/>
+      <c r="D38" s="46" t="str">
+        <f t="shared" ref="D38:D40" si="14">+D6</f>
+        <v>Textiles</v>
+      </c>
+      <c r="E38" s="39"/>
       <c r="H38" s="23">
-        <v>0</v>
+        <v>177.20099999999999</v>
       </c>
       <c r="I38" s="23">
-        <v>0</v>
+        <v>234.56100000000001</v>
       </c>
       <c r="J38" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+        <v>176.32900000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="8" t="str">
-        <f>+D31</f>
-        <v>Thom Browne</v>
-      </c>
-      <c r="E39" s="11"/>
+      <c r="D39" s="46" t="str">
+        <f t="shared" si="14"/>
+        <v>Third Party Brands</v>
+      </c>
+      <c r="E39" s="39"/>
       <c r="H39" s="23">
-        <v>124.83</v>
+        <v>0</v>
       </c>
       <c r="I39" s="23">
-        <v>184.31200000000001</v>
+        <v>0</v>
       </c>
       <c r="J39" s="23">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="9" t="str">
-        <f>+D32</f>
-        <v>Tom Ford</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="47" t="str">
+        <f t="shared" si="14"/>
+        <v>Other</v>
+      </c>
+      <c r="E40" s="7"/>
       <c r="H40" s="23">
         <v>0</v>
       </c>
       <c r="I40" s="23">
         <v>0</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8" t="str">
+        <f>+D33</f>
+        <v>Thom Browne</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="H41" s="23">
+        <v>124.83</v>
+      </c>
+      <c r="I41" s="23">
+        <v>184.31200000000001</v>
+      </c>
+      <c r="J41" s="23">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="9" t="str">
+        <f>+D34</f>
+        <v>Tom Ford</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="H42" s="23">
+        <v>0</v>
+      </c>
+      <c r="I42" s="23">
+        <v>0</v>
+      </c>
+      <c r="J42" s="28">
         <v>99.2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="28"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="3" t="s">
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="28"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="10"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23">
-        <f>+SUM(I44:I52)</f>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="10"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23">
+        <f>+SUM(I46:I54)</f>
         <v>239</v>
       </c>
-      <c r="J43" s="23">
-        <f>+SUM(J44:J52)</f>
+      <c r="J45" s="23">
+        <f>+SUM(J46:J54)</f>
         <v>729</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="13" t="str">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="13" t="str">
         <f>+C4</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="15"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23">
+      <c r="D46" s="51"/>
+      <c r="E46" s="15"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23">
         <v>239</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J46" s="23">
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="3" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="25"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
-      <c r="C48" s="13" t="str">
-        <f>+C9</f>
-        <v>Thom Browne</v>
-      </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="15"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="26"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="23">
-        <f>+SUM(I49:I51)</f>
-        <v>0</v>
-      </c>
+      <c r="I48" s="23"/>
       <c r="J48" s="23">
-        <f>+SUM(J49:J51)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="27"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="50"/>
+      <c r="C50" s="13" t="str">
+        <f>+C9</f>
+        <v>Thom Browne</v>
+      </c>
+      <c r="D50" s="51"/>
+      <c r="E50" s="15"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="I50" s="23">
+        <f>+SUM(I51:I53)</f>
+        <v>0</v>
+      </c>
       <c r="J50" s="23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+        <f>+SUM(J51:J53)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="51"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
-      <c r="C52" s="8" t="str">
-        <f>+C10</f>
-        <v>Tom Ford</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="50"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="49"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23">
-        <f>+SUM(J53:J55)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="50"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="50"/>
+      <c r="C54" s="8" t="str">
+        <f>+C10</f>
+        <v>Tom Ford</v>
+      </c>
+      <c r="D54" s="40"/>
+      <c r="E54" s="49"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="51"/>
+        <f>+SUM(J55:J57)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="49"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="50"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="3" t="s">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="10"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23">
-        <f>+SUM(I58:I66)</f>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="10"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23">
+        <f>+SUM(I60:I68)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="23">
-        <f>+SUM(J58:J66)</f>
+      <c r="J59" s="23">
+        <f>+SUM(J60:J68)</f>
         <v>382</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="13" t="str">
-        <f>+C44</f>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="13" t="str">
+        <f>+C46</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="15"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23">
-        <f>+SUM(J59:J61)</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="3" t="str">
-        <f>+D53</f>
-        <v>APAC</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="50"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="15"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+        <f>+SUM(J61:J63)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="51"/>
+      <c r="D61" s="3" t="str">
+        <f>+D55</f>
+        <v>APAC</v>
+      </c>
+      <c r="E61" s="15"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
-      <c r="C62" s="13" t="str">
-        <f>+C48</f>
-        <v>Thom Browne</v>
-      </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="15"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="49"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23">
-        <f>+SUM(J63:J65)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="15"/>
+      <c r="D63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="50"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="50"/>
+      <c r="C64" s="13" t="str">
+        <f>+C50</f>
+        <v>Thom Browne</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="15"/>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+        <f>+SUM(J65:J67)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="51"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="15"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
-      <c r="C66" s="13" t="str">
-        <f>+C52</f>
-        <v>Tom Ford</v>
-      </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="15"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="49"/>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23">
-        <f>+SUM(J67:J69)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="15"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="50"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" s="50"/>
+      <c r="C68" s="13" t="str">
+        <f>+C54</f>
+        <v>Tom Ford</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="15"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="51"/>
+        <f>+SUM(J69:J71)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="15"/>
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="49"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="50"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="J78" s="19" t="s">
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="J80" s="19" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="J79" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="J80" s="1">
-        <v>0.15</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="J81" s="1">
-        <v>0.6</v>
+      <c r="J81" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="J82" s="1">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="J83" s="1">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="J84" s="1">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="J85" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="J86" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="J87" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="J86" s="1">
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="J88" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -2711,7 +2674,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ZGN.xlsx
+++ b/ZGN.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92F844-C5A5-4A07-A93C-29C3FD167960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACC0BAC-8BF1-480C-BF6F-E5DC131E49D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Financial Statements" sheetId="4" r:id="rId2"/>
-    <sheet name="FX Rate" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="DCF" sheetId="5" r:id="rId2"/>
+    <sheet name="Financial Statements" sheetId="4" r:id="rId3"/>
+    <sheet name="FX Rate" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <t>APAC</t>
   </si>
@@ -140,63 +140,6 @@
     <t>Fully owned</t>
   </si>
   <si>
-    <t>PEEL</t>
-  </si>
-  <si>
-    <t>113-2709974-9897869</t>
-  </si>
-  <si>
-    <t>MUMMY</t>
-  </si>
-  <si>
-    <t>113-7654229-2269828</t>
-  </si>
-  <si>
-    <t>LYNPHA</t>
-  </si>
-  <si>
-    <t>113-2301598-8169850</t>
-  </si>
-  <si>
-    <t>COMFY</t>
-  </si>
-  <si>
-    <t>113-2825233-2291434</t>
-  </si>
-  <si>
-    <t>MEYER</t>
-  </si>
-  <si>
-    <t>113-9602993-3133002</t>
-  </si>
-  <si>
-    <t>Instacart</t>
-  </si>
-  <si>
-    <t>Mint Mobile</t>
-  </si>
-  <si>
-    <t>Sumner Market</t>
-  </si>
-  <si>
-    <t>Raising Canes</t>
-  </si>
-  <si>
-    <t>SweetGreen</t>
-  </si>
-  <si>
-    <t>Hmart</t>
-  </si>
-  <si>
-    <t>Frank Pepe</t>
-  </si>
-  <si>
-    <t>Sephora</t>
-  </si>
-  <si>
-    <t>MBTA</t>
-  </si>
-  <si>
     <t>Wholesale POS:</t>
   </si>
   <si>
@@ -261,6 +204,174 @@
   </si>
   <si>
     <t>Other (+LATAM)</t>
+  </si>
+  <si>
+    <t>Foreign currency exchange differences arising from the translation of foreign operations</t>
+  </si>
+  <si>
+    <t>Net (loss)/gain from cash flow hedges</t>
+  </si>
+  <si>
+    <t>Net gain/(loss) from financial instruments measured at fair value</t>
+  </si>
+  <si>
+    <t>Net actuarial gain/(loss) from defind benefit plans</t>
+  </si>
+  <si>
+    <t>Total other comprehensive (loss)/income, net of tax</t>
+  </si>
+  <si>
+    <t>Total comprehensive income/(loss)</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>Investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Other non-current financial assets</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Derivative financial instruments</t>
+  </si>
+  <si>
+    <t>Tax receivables</t>
+  </si>
+  <si>
+    <t>Other current financial assets</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Current borrowings</t>
+  </si>
+  <si>
+    <t>Other current financial liabilities</t>
+  </si>
+  <si>
+    <t>Current lease liabilities</t>
+  </si>
+  <si>
+    <t>Current provisions for risks and charges</t>
+  </si>
+  <si>
+    <t>Trade payables and customer advances</t>
+  </si>
+  <si>
+    <t>Tax liabilities</t>
+  </si>
+  <si>
+    <t>Other current liabilties</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Non-current borrowings</t>
+  </si>
+  <si>
+    <t>Other non-current financial liabilities</t>
+  </si>
+  <si>
+    <t>Non-current lease liabilities</t>
+  </si>
+  <si>
+    <t>Non-current provisions for risks and charges</t>
+  </si>
+  <si>
+    <t>Employee benefits</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Other non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>% Growth Rate</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>% EBIT Margin</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>NOPAT</t>
+  </si>
+  <si>
+    <t>% NOPAT Margin</t>
+  </si>
+  <si>
+    <t>+ D&amp;A</t>
+  </si>
+  <si>
+    <t>- CAPEX</t>
+  </si>
+  <si>
+    <t>- Change in NWC</t>
+  </si>
+  <si>
+    <t>FCFF</t>
+  </si>
+  <si>
+    <t>Discount Factor</t>
+  </si>
+  <si>
+    <t>PV of FCFF</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>% of EBIT</t>
   </si>
 </sst>
 </file>
@@ -271,7 +382,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,18 +410,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="singleAccounting"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,16 +424,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -468,12 +594,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -510,11 +666,8 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -531,9 +684,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -580,6 +733,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -589,6 +759,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -1019,7 +1190,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,70 +1210,70 @@
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F2" s="38">
+      <c r="F2" s="35">
         <v>2019</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="35">
         <f>+F2+1</f>
         <v>2020</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="35">
         <f t="shared" ref="H2:V2" si="0">+G2+1</f>
         <v>2021</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="35">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="35">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="35">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="35">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="35">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="35">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="35">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="35">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="35">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="35">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="35">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="35">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="35">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="35">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
@@ -1114,49 +1285,49 @@
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21">
         <f>+SUM(H9:H10)+H4</f>
         <v>1292.0050000000001</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <f>+SUM(I9:I10)+I4</f>
         <v>1492.826</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="21">
         <f>+SUM(J9:J10)+J4</f>
         <v>1904.6079999999999</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4"/>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <f t="shared" ref="H4:I4" si="1">+SUM(H5:H8)</f>
         <v>1029.0050000000001</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <f t="shared" si="1"/>
         <v>1162.826</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <f>+SUM(J5:J8)</f>
         <v>1290.6079999999999</v>
       </c>
@@ -1166,16 +1337,16 @@
       <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="H5" s="23">
+        <v>50</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="H5" s="21">
         <v>847.31100000000004</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>923.94200000000001</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="21">
         <v>1109.491</v>
       </c>
       <c r="K5" s="17"/>
@@ -1184,16 +1355,16 @@
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="H6" s="23">
+        <v>49</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="H6" s="21">
         <v>102.244</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>136.76900000000001</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="21">
         <v>150.98599999999999</v>
       </c>
       <c r="K6" s="17"/>
@@ -1202,16 +1373,16 @@
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="H7" s="23">
+        <v>51</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="H7" s="21">
         <v>74.956999999999994</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>97.792000000000002</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="21">
         <v>25.343</v>
       </c>
       <c r="K7" s="17"/>
@@ -1222,14 +1393,14 @@
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="H8" s="23">
+      <c r="E8" s="40"/>
+      <c r="H8" s="21">
         <v>4.4930000000000003</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>4.3230000000000004</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>4.7880000000000003</v>
       </c>
       <c r="K8" s="17"/>
@@ -1239,15 +1410,15 @@
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4"/>
-      <c r="H9" s="23">
+      <c r="H9" s="21">
         <v>263</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>330</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="21">
         <v>378</v>
       </c>
     </row>
@@ -1256,22 +1427,22 @@
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="7"/>
-      <c r="H10" s="23">
+      <c r="H10" s="21">
         <v>0</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>0</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="21">
         <v>236</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
@@ -1280,15 +1451,15 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="10"/>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <f>+H13+SUM(H17:H19)</f>
         <v>1292</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <f t="shared" ref="I12:J12" si="2">+I13+SUM(I17:I19)</f>
         <v>1493</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <f t="shared" si="2"/>
         <v>1904.855</v>
       </c>
@@ -1298,17 +1469,17 @@
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="4"/>
-      <c r="H13" s="23">
+      <c r="H13" s="21">
         <f t="shared" ref="H13:I13" si="3">+SUM(H14:H16)</f>
         <v>696</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="21">
         <f t="shared" si="3"/>
         <v>645</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="21">
         <f>+SUM(J14:J16)</f>
         <v>788.00699999999995</v>
       </c>
@@ -1319,51 +1490,51 @@
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="23">
+      <c r="E14" s="41"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21">
         <v>588.87599999999998</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="21">
         <v>494.11</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="21">
         <v>595.51499999999999</v>
       </c>
-      <c r="L14" s="28"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="H15" s="23">
+        <v>52</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="H15" s="21">
         <v>55.478999999999999</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>65.444999999999993</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="21">
         <v>84.99</v>
       </c>
-      <c r="L15" s="28"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="H16" s="23">
+        <v>53</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="H16" s="21">
         <v>51.644999999999982</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <v>85.444999999999936</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="21">
         <v>107.50199999999995</v>
       </c>
     </row>
@@ -1373,13 +1544,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="H17" s="23">
+      <c r="H17" s="21">
         <v>380</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>520</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="21">
         <v>659</v>
       </c>
       <c r="W17" t="s">
@@ -1392,41 +1563,41 @@
         <v>2</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="H18" s="23">
+      <c r="H18" s="21">
         <v>191</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>295</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="21">
         <v>417.35199999999998</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="45"/>
+        <v>54</v>
+      </c>
+      <c r="D19" s="42"/>
       <c r="E19" s="12"/>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <v>25</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>33</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="21">
         <f>37.538+2.958</f>
         <v>40.495999999999995</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
@@ -1435,16 +1606,16 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="10"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4"/>
       <c r="H22" s="18">
         <f>+H13/H$12</f>
@@ -1465,7 +1636,7 @@
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="41"/>
       <c r="H23" s="18">
         <f t="shared" ref="H23:J23" si="5">+H14/H$12</f>
         <v>0.45578637770897829</v>
@@ -1483,9 +1654,9 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="36"/>
+        <v>52</v>
+      </c>
+      <c r="E24" s="33"/>
       <c r="H24" s="18">
         <f t="shared" ref="H24:J24" si="6">+H15/H$12</f>
         <v>4.2940402476780187E-2</v>
@@ -1506,7 +1677,7 @@
         <f>+D16</f>
         <v>Asia (Other)</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="40"/>
       <c r="H25" s="18">
         <f t="shared" ref="H25:J25" si="7">+H16/H$12</f>
         <v>3.9972910216718255E-2</v>
@@ -1564,7 +1735,7 @@
         <f>+C19</f>
         <v>Other (+LATAM)</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="12"/>
       <c r="H28" s="18">
         <f t="shared" ref="H28:J28" si="10">+H19/H$12</f>
@@ -1580,9 +1751,9 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
@@ -1591,9 +1762,9 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="10"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
@@ -1602,15 +1773,15 @@
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="10"/>
-      <c r="H31" s="23">
+      <c r="H31" s="21">
         <f t="shared" ref="H31:I31" si="11">+SUM(H32:H34)</f>
         <v>851.42899999999997</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <f t="shared" si="11"/>
         <v>918.20699999999999</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="21">
         <f>+SUM(J32:J34)</f>
         <v>1265</v>
       </c>
@@ -1623,13 +1794,13 @@
         <v>Ermenegildo Zegna</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="H32" s="23">
+      <c r="H32" s="21">
         <v>712.86199999999997</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="21">
         <v>772.505</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="21">
         <v>945.3</v>
       </c>
     </row>
@@ -1641,13 +1812,13 @@
         <v>Thom Browne</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="H33" s="23">
+      <c r="H33" s="21">
         <v>138.56700000000001</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="21">
         <v>145.702</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="21">
         <v>183.4</v>
       </c>
     </row>
@@ -1659,13 +1830,13 @@
         <v>Tom Ford</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="H34" s="23">
+      <c r="H34" s="21">
         <v>0</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="21">
         <v>0</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="21">
         <v>136.30000000000001</v>
       </c>
     </row>
@@ -1675,15 +1846,15 @@
         <v>16</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="H35" s="23">
+      <c r="H35" s="21">
         <f t="shared" ref="H35:I35" si="12">+H36+SUM(H41:H42)</f>
         <v>436.47999999999996</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="21">
         <f t="shared" si="12"/>
         <v>570.31000000000006</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="21">
         <f>+J36+SUM(J41:J42)</f>
         <v>634.72900000000004</v>
       </c>
@@ -1696,15 +1867,15 @@
         <v>Ermenegildo Zegna</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="H36" s="28">
+      <c r="H36" s="25">
         <f t="shared" ref="H36:I36" si="13">+SUM(H37:H40)</f>
         <v>311.64999999999998</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="25">
         <f t="shared" si="13"/>
         <v>385.99800000000005</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="25">
         <f>+SUM(J37:J40)</f>
         <v>340.529</v>
       </c>
@@ -1712,72 +1883,72 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="48" t="str">
+      <c r="D37" s="45" t="str">
         <f>+D5</f>
         <v>ZEGNA</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="H37" s="23">
+      <c r="E37" s="34"/>
+      <c r="H37" s="21">
         <v>134.44900000000001</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="21">
         <v>151.43700000000001</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="21">
         <v>164.2</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="46" t="str">
+      <c r="D38" s="43" t="str">
         <f t="shared" ref="D38:D40" si="14">+D6</f>
         <v>Textiles</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="H38" s="23">
+      <c r="E38" s="36"/>
+      <c r="H38" s="21">
         <v>177.20099999999999</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="21">
         <v>234.56100000000001</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="21">
         <v>176.32900000000001</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="46" t="str">
+      <c r="D39" s="43" t="str">
         <f t="shared" si="14"/>
         <v>Third Party Brands</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="H39" s="23">
+      <c r="E39" s="36"/>
+      <c r="H39" s="21">
         <v>0</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="21">
         <v>0</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="47" t="str">
+      <c r="D40" s="44" t="str">
         <f t="shared" si="14"/>
         <v>Other</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="H40" s="23">
+      <c r="H40" s="21">
         <v>0</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="21">
         <v>0</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1789,13 +1960,13 @@
         <v>Thom Browne</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="H41" s="23">
+      <c r="H41" s="21">
         <v>124.83</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="21">
         <v>184.31200000000001</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="21">
         <v>195</v>
       </c>
     </row>
@@ -1807,28 +1978,28 @@
         <v>Tom Ford</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="H42" s="23">
+      <c r="H42" s="21">
         <v>0</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="21">
         <v>0</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="25">
         <v>99.2</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="25"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
@@ -1837,12 +2008,12 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="10"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23">
+      <c r="H45" s="21"/>
+      <c r="I45" s="21">
         <f>+SUM(I46:I54)</f>
         <v>239</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="21">
         <f>+SUM(J46:J54)</f>
         <v>729</v>
       </c>
@@ -1853,13 +2024,13 @@
         <f>+C4</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="15"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23">
+      <c r="H46" s="21"/>
+      <c r="I46" s="21">
         <v>239</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="21">
         <v>253</v>
       </c>
     </row>
@@ -1869,10 +2040,10 @@
       <c r="D47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23">
+      <c r="E47" s="22"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21">
         <v>123</v>
       </c>
     </row>
@@ -1882,10 +2053,10 @@
       <c r="D48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23">
+      <c r="E48" s="23"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21">
         <v>71</v>
       </c>
     </row>
@@ -1895,10 +2066,10 @@
       <c r="D49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23">
+      <c r="E49" s="24"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21">
         <v>59</v>
       </c>
     </row>
@@ -1908,14 +2079,14 @@
         <f>+C9</f>
         <v>Thom Browne</v>
       </c>
-      <c r="D50" s="51"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="15"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23">
+      <c r="H50" s="21"/>
+      <c r="I50" s="21">
         <f>+SUM(I51:I53)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="21">
         <f>+SUM(J51:J53)</f>
         <v>86</v>
       </c>
@@ -1927,9 +2098,9 @@
         <v>0</v>
       </c>
       <c r="E51" s="15"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23">
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21">
         <v>70</v>
       </c>
     </row>
@@ -1939,10 +2110,10 @@
       <c r="D52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23">
+      <c r="E52" s="46"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21">
         <v>9</v>
       </c>
     </row>
@@ -1952,10 +2123,10 @@
       <c r="D53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="50"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23">
+      <c r="E53" s="47"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21">
         <v>7</v>
       </c>
     </row>
@@ -1965,11 +2136,11 @@
         <f>+C10</f>
         <v>Tom Ford</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="49"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23">
+      <c r="D54" s="37"/>
+      <c r="E54" s="46"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21">
         <f>+SUM(J55:J57)</f>
         <v>51</v>
       </c>
@@ -1981,9 +2152,9 @@
         <v>0</v>
       </c>
       <c r="E55" s="15"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23">
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21">
         <v>35</v>
       </c>
     </row>
@@ -1993,10 +2164,10 @@
       <c r="D56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="49"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23">
+      <c r="E56" s="46"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21">
         <v>4</v>
       </c>
     </row>
@@ -2006,31 +2177,31 @@
       <c r="D57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="50"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23">
+      <c r="E57" s="47"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="10"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23">
+      <c r="H59" s="21"/>
+      <c r="I59" s="21">
         <f>+SUM(I60:I68)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="21">
         <f>+SUM(J60:J68)</f>
         <v>382</v>
       </c>
@@ -2041,11 +2212,11 @@
         <f>+C46</f>
         <v>Ermenegildo Zegna</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="15"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23">
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21">
         <f>+SUM(J61:J63)</f>
         <v>151</v>
       </c>
@@ -2058,9 +2229,9 @@
         <v>APAC</v>
       </c>
       <c r="E61" s="15"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23">
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21">
         <v>33</v>
       </c>
     </row>
@@ -2070,10 +2241,10 @@
       <c r="D62" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="49"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23">
+      <c r="E62" s="46"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21">
         <v>55</v>
       </c>
     </row>
@@ -2083,10 +2254,10 @@
       <c r="D63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="50"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23">
+      <c r="E63" s="47"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21">
         <v>63</v>
       </c>
     </row>
@@ -2096,11 +2267,11 @@
         <f>+C50</f>
         <v>Thom Browne</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="15"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23">
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21">
         <f>+SUM(J65:J67)</f>
         <v>25</v>
       </c>
@@ -2112,9 +2283,9 @@
         <v>0</v>
       </c>
       <c r="E65" s="15"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23">
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21">
         <v>15</v>
       </c>
     </row>
@@ -2124,10 +2295,10 @@
       <c r="D66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="49"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23">
+      <c r="E66" s="46"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21">
         <v>7</v>
       </c>
     </row>
@@ -2137,10 +2308,10 @@
       <c r="D67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23">
+      <c r="E67" s="47"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21">
         <v>3</v>
       </c>
     </row>
@@ -2150,11 +2321,11 @@
         <f>+C54</f>
         <v>Tom Ford</v>
       </c>
-      <c r="D68" s="51"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="15"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23">
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21">
         <f>+SUM(J69:J71)</f>
         <v>30</v>
       </c>
@@ -2166,9 +2337,9 @@
         <v>0</v>
       </c>
       <c r="E69" s="15"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23">
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21">
         <v>6</v>
       </c>
     </row>
@@ -2178,10 +2349,10 @@
       <c r="D70" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="49"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23">
+      <c r="E70" s="46"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21">
         <v>14</v>
       </c>
     </row>
@@ -2191,10 +2362,10 @@
       <c r="D71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="50"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23">
+      <c r="E71" s="47"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21">
         <v>10</v>
       </c>
     </row>
@@ -2342,11 +2513,741 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AB4B4B-4DFF-4F9A-A02A-2C958E3564AD}">
+  <dimension ref="B2:S18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="19" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <f>+Overview!F2</f>
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2">
+        <f>+Overview!G2</f>
+        <v>2020</v>
+      </c>
+      <c r="E2" s="35">
+        <f>+Overview!H2</f>
+        <v>2021</v>
+      </c>
+      <c r="F2" s="35">
+        <f>+Overview!I2</f>
+        <v>2022</v>
+      </c>
+      <c r="G2" s="35">
+        <f>+Overview!J2</f>
+        <v>2023</v>
+      </c>
+      <c r="H2" s="35">
+        <f>+Overview!K2</f>
+        <v>2024</v>
+      </c>
+      <c r="I2" s="35">
+        <f>+Overview!L2</f>
+        <v>2025</v>
+      </c>
+      <c r="J2" s="35">
+        <f>+Overview!M2</f>
+        <v>2026</v>
+      </c>
+      <c r="K2" s="35">
+        <f>+Overview!N2</f>
+        <v>2027</v>
+      </c>
+      <c r="L2" s="35">
+        <f>+Overview!O2</f>
+        <v>2028</v>
+      </c>
+      <c r="M2" s="35">
+        <f>+Overview!P2</f>
+        <v>2029</v>
+      </c>
+      <c r="N2" s="35">
+        <f>+Overview!Q2</f>
+        <v>2030</v>
+      </c>
+      <c r="O2" s="35">
+        <f>+Overview!R2</f>
+        <v>2031</v>
+      </c>
+      <c r="P2" s="35">
+        <f>+Overview!S2</f>
+        <v>2032</v>
+      </c>
+      <c r="Q2" s="35">
+        <f>+Overview!T2</f>
+        <v>2033</v>
+      </c>
+      <c r="R2" s="35">
+        <f>+Overview!U2</f>
+        <v>2034</v>
+      </c>
+      <c r="S2" s="35">
+        <f>+Overview!V2</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="21">
+        <f>+'Financial Statements'!E3</f>
+        <v>1292402</v>
+      </c>
+      <c r="F3" s="21">
+        <f>+'Financial Statements'!F3</f>
+        <v>1492840</v>
+      </c>
+      <c r="G3" s="21">
+        <f>+'Financial Statements'!G3</f>
+        <v>1904549</v>
+      </c>
+      <c r="H3" s="21">
+        <f>+G3*(1+H4)</f>
+        <v>1923594.49</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" ref="I3:S3" si="0">+H3*(1+I4)</f>
+        <v>1942830.4349</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="0"/>
+        <v>1962258.7392490001</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="0"/>
+        <v>1981881.3266414902</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="0"/>
+        <v>2001700.1399079051</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="0"/>
+        <v>2021717.1413069842</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="0"/>
+        <v>2041934.3127200541</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="0"/>
+        <v>2062353.6558472547</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" si="0"/>
+        <v>2082977.1924057272</v>
+      </c>
+      <c r="Q3" s="21">
+        <f t="shared" si="0"/>
+        <v>2103806.9643297847</v>
+      </c>
+      <c r="R3" s="21">
+        <f t="shared" si="0"/>
+        <v>2124845.0339730824</v>
+      </c>
+      <c r="S3" s="21">
+        <f t="shared" si="0"/>
+        <v>2146093.4843128133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="N4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="R4" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="57">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="21">
+        <f>+'Financial Statements'!E8</f>
+        <v>-94028</v>
+      </c>
+      <c r="F5" s="21">
+        <f>+'Financial Statements'!F8</f>
+        <v>147777</v>
+      </c>
+      <c r="G5" s="21">
+        <f>+'Financial Statements'!G8</f>
+        <v>208148</v>
+      </c>
+      <c r="H5" s="21">
+        <f>+H3*H6</f>
+        <v>96179.724500000011</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" ref="I5:S5" si="1">+I3*I6</f>
+        <v>97141.521745000005</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="1"/>
+        <v>98112.93696245001</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="1"/>
+        <v>99094.066332074523</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="1"/>
+        <v>100085.00699539526</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="1"/>
+        <v>101085.85706534922</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="1"/>
+        <v>102096.71563600271</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="1"/>
+        <v>103117.68279236274</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="1"/>
+        <v>104148.85962028637</v>
+      </c>
+      <c r="Q5" s="21">
+        <f t="shared" si="1"/>
+        <v>105190.34821648925</v>
+      </c>
+      <c r="R5" s="21">
+        <f t="shared" si="1"/>
+        <v>106242.25169865413</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" si="1"/>
+        <v>107304.67421564067</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:G6" si="2">+F5/F3</f>
+        <v>9.8990514723614045E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10928991588034753</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="P6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="R6" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="57">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="21">
+        <f>+'Financial Statements'!E14</f>
+        <v>-30702</v>
+      </c>
+      <c r="F7" s="21">
+        <f>+'Financial Statements'!F14</f>
+        <v>-35802</v>
+      </c>
+      <c r="G7" s="21">
+        <f>+'Financial Statements'!G14</f>
+        <v>-33433</v>
+      </c>
+      <c r="H7" s="21">
+        <f>-H5*H8</f>
+        <v>-24044.931125000003</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" ref="I7:S7" si="3">-I5*I8</f>
+        <v>-24285.380436250001</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="3"/>
+        <v>-24528.234240612503</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="3"/>
+        <v>-24773.516583018631</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="3"/>
+        <v>-25021.251748848816</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="3"/>
+        <v>-25271.464266337305</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="3"/>
+        <v>-25524.178909000679</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="3"/>
+        <v>-25779.420698090686</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="3"/>
+        <v>-26037.214905071593</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="3"/>
+        <v>-26297.587054122312</v>
+      </c>
+      <c r="R7" s="21">
+        <f t="shared" si="3"/>
+        <v>-26560.562924663533</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="3"/>
+        <v>-26826.168553910167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60">
+        <f t="shared" ref="F8:G8" si="4">-F7/F5</f>
+        <v>0.2422704480399521</v>
+      </c>
+      <c r="G8" s="60">
+        <f t="shared" si="4"/>
+        <v>0.16062128869842612</v>
+      </c>
+      <c r="H8" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="61">
+        <f>+H8</f>
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="61">
+        <f t="shared" ref="J8:S8" si="5">+I8</f>
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="R8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="25">
+        <f>+E5+E7</f>
+        <v>-124730</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" ref="F9:S9" si="6">+F5+F7</f>
+        <v>111975</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="6"/>
+        <v>174715</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="6"/>
+        <v>72134.793375000008</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="6"/>
+        <v>72856.141308749997</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="6"/>
+        <v>73584.702721837501</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="6"/>
+        <v>74320.549749055892</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="6"/>
+        <v>75063.75524654644</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" si="6"/>
+        <v>75814.392799011912</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="6"/>
+        <v>76572.536727002036</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="6"/>
+        <v>77338.262094272053</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="6"/>
+        <v>78111.644715214774</v>
+      </c>
+      <c r="Q9" s="25">
+        <f t="shared" si="6"/>
+        <v>78892.761162366936</v>
+      </c>
+      <c r="R9" s="25">
+        <f t="shared" si="6"/>
+        <v>79681.688773990594</v>
+      </c>
+      <c r="S9" s="25">
+        <f t="shared" si="6"/>
+        <v>80478.505661730509</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="25">
+        <v>163367</v>
+      </c>
+      <c r="F11" s="25">
+        <v>173521</v>
+      </c>
+      <c r="G11" s="25">
+        <v>194952</v>
+      </c>
+      <c r="H11" s="25">
+        <f>+H12*H3</f>
+        <v>192359.44900000002</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" ref="I11:S11" si="7">+I12*I3</f>
+        <v>194283.04349000001</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="7"/>
+        <v>196225.87392490002</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="7"/>
+        <v>198188.13266414905</v>
+      </c>
+      <c r="L11" s="25">
+        <f t="shared" si="7"/>
+        <v>200170.01399079052</v>
+      </c>
+      <c r="M11" s="25">
+        <f t="shared" si="7"/>
+        <v>202171.71413069844</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" si="7"/>
+        <v>204193.43127200543</v>
+      </c>
+      <c r="O11" s="25">
+        <f t="shared" si="7"/>
+        <v>206235.36558472548</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="7"/>
+        <v>208297.71924057274</v>
+      </c>
+      <c r="Q11" s="25">
+        <f t="shared" si="7"/>
+        <v>210380.6964329785</v>
+      </c>
+      <c r="R11" s="25">
+        <f t="shared" si="7"/>
+        <v>212484.50339730826</v>
+      </c>
+      <c r="S11" s="25">
+        <f t="shared" si="7"/>
+        <v>214609.34843128134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I16" s="2">
+        <f>+H16+0.5</f>
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ref="J16:S16" si="8">+I16+0.5</f>
+        <v>1.45</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="8"/>
+        <v>1.95</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="8"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="8"/>
+        <v>2.95</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="8"/>
+        <v>3.45</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="8"/>
+        <v>3.95</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="8"/>
+        <v>4.45</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="8"/>
+        <v>4.95</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="8"/>
+        <v>5.45</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="8"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A5F9C-C8E5-49F5-B365-9FD985C25900}">
-  <dimension ref="B2:S16"/>
+  <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,305 +3260,676 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="38">
+      <c r="C2" s="35">
         <f>+Overview!F2</f>
         <v>2019</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="35">
         <f>+Overview!G2</f>
         <v>2020</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="35">
         <f>+Overview!H2</f>
         <v>2021</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="35">
         <f>+Overview!I2</f>
         <v>2022</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="35">
         <f>+Overview!J2</f>
         <v>2023</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="35">
         <f>+Overview!K2</f>
         <v>2024</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="35">
         <f>+Overview!L2</f>
         <v>2025</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="35">
         <f>+Overview!M2</f>
         <v>2026</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="35">
         <f>+Overview!N2</f>
         <v>2027</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="35">
         <f>+Overview!O2</f>
         <v>2028</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="35">
         <f>+Overview!P2</f>
         <v>2029</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="35">
         <f>+Overview!Q2</f>
         <v>2030</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="35">
         <f>+Overview!R2</f>
         <v>2031</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="35">
         <f>+Overview!S2</f>
         <v>2032</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="35">
         <f>+Overview!T2</f>
         <v>2033</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="35">
         <f>+Overview!U2</f>
         <v>2034</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="35">
         <f>+Overview!V2</f>
         <v>2035</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="32">
+      <c r="B3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="29">
         <v>1292402</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="29">
         <v>1492840</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="29">
         <v>1904549</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="17.25" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="33">
+        <v>36</v>
+      </c>
+      <c r="E4" s="30">
         <v>-495702</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="30">
         <v>-564832</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="30">
         <v>-680235</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="32">
+      <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="29">
         <f>+E3+E4</f>
         <v>796700</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <f>+F3+F4</f>
         <v>928008</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="29">
         <f>+G3+G4</f>
         <v>1224314</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="23">
+        <v>38</v>
+      </c>
+      <c r="E6" s="21">
         <v>-822897</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>-695084</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>-901364</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="17.25" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="33">
+        <v>39</v>
+      </c>
+      <c r="E7" s="30">
         <v>-67831</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="30">
         <v>-85147</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="30">
         <v>-114802</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="32">
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="29">
         <f>+SUM(E5:E7)</f>
         <v>-94028</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="29">
         <f>+SUM(F5:F7)</f>
         <v>147777</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="29">
         <f>+SUM(G5:G7)</f>
         <v>208148</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="23">
+        <v>41</v>
+      </c>
+      <c r="E9" s="21">
         <v>45889</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="21">
         <v>13320</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>37282</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="23">
+        <v>47</v>
+      </c>
+      <c r="E10" s="21">
         <v>-43823</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>-54346</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>-68121</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="23">
+        <v>42</v>
+      </c>
+      <c r="E11" s="21">
         <v>-7791</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>-7869</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>-5262</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="17.25" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="33">
+        <v>43</v>
+      </c>
+      <c r="E12" s="30">
         <v>2794</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="30">
         <v>2199</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="30">
         <v>-2953</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35">
+      <c r="B13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32">
         <f>+SUM(E8:E12)</f>
         <v>-96959</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="32">
         <f>+SUM(F8:F12)</f>
         <v>101081</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="32">
         <f>+SUM(G8:G12)</f>
         <v>169094</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="23">
+        <v>44</v>
+      </c>
+      <c r="E14" s="21">
         <v>-30702</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>-35802</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>-33433</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31">
+      <c r="B15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28">
         <f>-E14/E13</f>
         <v>-0.31664930537649932</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <f>-F14/F13</f>
         <v>0.35419119320149189</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="28">
         <f>-G14/G13</f>
         <v>0.19771842880291435</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="32">
+      <c r="B16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="29">
         <f t="shared" ref="E16:F16" si="0">+SUM(E13:E14)</f>
         <v>-127661</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="29">
         <f t="shared" si="0"/>
         <v>65279</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <f>+SUM(G13:G14)</f>
         <v>135661</v>
       </c>
       <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="49">
+        <v>40324</v>
+      </c>
+      <c r="F18" s="49">
+        <v>10098</v>
+      </c>
+      <c r="G18" s="49">
+        <v>-15887</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="49">
+        <v>-6344</v>
+      </c>
+      <c r="F19" s="49">
+        <v>21744</v>
+      </c>
+      <c r="G19" s="49">
+        <v>-7553</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="49">
+        <v>444</v>
+      </c>
+      <c r="F20" s="49">
+        <v>-1482</v>
+      </c>
+      <c r="G20" s="49">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="30">
+        <v>-397</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1092</v>
+      </c>
+      <c r="G21" s="30">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="50">
+        <f>+SUM(E18:E21)</f>
+        <v>34027</v>
+      </c>
+      <c r="F22" s="50">
+        <f>+SUM(F18:F21)</f>
+        <v>31452</v>
+      </c>
+      <c r="G22" s="50">
+        <f>+SUM(G18:G21)</f>
+        <v>-21780</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="29">
+        <f>+E16+E22</f>
+        <v>-93634</v>
+      </c>
+      <c r="F23" s="29">
+        <f>+F16+F22</f>
+        <v>96731</v>
+      </c>
+      <c r="G23" s="29">
+        <f>+G16+G22</f>
+        <v>113881</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="21">
+        <v>410851</v>
+      </c>
+      <c r="G26" s="21">
+        <v>522589</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="21">
+        <v>177213</v>
+      </c>
+      <c r="G27" s="21">
+        <v>240457</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="21">
+        <v>22454</v>
+      </c>
+      <c r="G28" s="21">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="21">
+        <v>15350</v>
+      </c>
+      <c r="G29" s="21">
+        <v>31024</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="21">
+        <v>320894</v>
+      </c>
+      <c r="G30" s="21">
+        <v>90917</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="21">
+        <v>84574</v>
+      </c>
+      <c r="G31" s="21">
+        <v>95260</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="51">
+        <v>254321</v>
+      </c>
+      <c r="G32" s="51">
+        <v>296279</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="29">
+        <f>+SUM(F26:F32)</f>
+        <v>1285657</v>
+      </c>
+      <c r="G33" s="29">
+        <f>+SUM(G26:G32)</f>
+        <v>1287636</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="21">
+        <v>455908</v>
+      </c>
+      <c r="G34" s="21">
+        <v>572274</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="21">
+        <v>126139</v>
+      </c>
+      <c r="G35" s="21">
+        <v>159608</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="21">
+        <v>375508</v>
+      </c>
+      <c r="G36" s="21">
+        <v>533952</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="21">
+        <v>22648</v>
+      </c>
+      <c r="G37" s="21">
+        <v>18765</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="21">
+        <v>124927</v>
+      </c>
+      <c r="G38" s="21">
+        <v>160878</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="51">
+        <v>36240</v>
+      </c>
+      <c r="G39" s="51">
+        <v>33898</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="32">
+        <f>+SUM(F34:F39)</f>
+        <v>1141370</v>
+      </c>
+      <c r="G40" s="32">
+        <f>+SUM(G34:G39)</f>
+        <v>1479375</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="29">
+        <f>+F40+F33</f>
+        <v>2427027</v>
+      </c>
+      <c r="G41" s="29">
+        <f>+G40+G33</f>
+        <v>2767011</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD592D4-8701-4224-A106-86B655B79AA7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2667,171 +3939,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DEE4E6-50BF-4E9E-A5F7-90BABAAEE482}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>6.49</v>
-      </c>
-      <c r="C9" s="24">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>9.99</v>
-      </c>
-      <c r="C10" s="24">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>8.16</v>
-      </c>
-      <c r="C11" s="24">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12" s="24">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13" s="24">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14" s="24">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15" s="24">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>24</v>
-      </c>
-      <c r="C16" s="24">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>90</v>
-      </c>
-      <c r="C17" s="24">
-        <v>45384</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ZGN.xlsx
+++ b/ZGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACC0BAC-8BF1-480C-BF6F-E5DC131E49D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358BADAF-B901-45C1-B867-C9E6A61F9F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{0F3DA43A-D516-493C-A85D-F0700FFA09FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
   <si>
     <t>APAC</t>
   </si>
@@ -357,18 +357,6 @@
   </si>
   <si>
     <t>PV of FCFF</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>% of EBIT</t>
@@ -629,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -738,13 +726,11 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1190,7 +1176,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29:L29"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,40 +2655,40 @@
       <c r="B4" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="56">
         <v>0.01</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="56">
         <v>0.01</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="56">
         <v>0.01</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="56">
         <v>0.01</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="56">
         <v>0.01</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="56">
         <v>0.01</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="56">
         <v>0.01</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="56">
         <v>0.01</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="56">
         <v>0.01</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="56">
         <v>0.01</v>
       </c>
-      <c r="R4" s="57">
+      <c r="R4" s="56">
         <v>0.01</v>
       </c>
-      <c r="S4" s="57">
+      <c r="S4" s="56">
         <v>0.01</v>
       </c>
     </row>
@@ -2784,45 +2770,45 @@
         <f t="shared" si="2"/>
         <v>0.10928991588034753</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="56">
         <v>0.05</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="56">
         <v>0.05</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="56">
         <v>0.05</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <v>0.05</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="56">
         <v>0.05</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="56">
         <v>0.05</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="56">
         <v>0.05</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="56">
         <v>0.05</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="56">
         <v>0.05</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="56">
         <v>0.05</v>
       </c>
-      <c r="R6" s="57">
+      <c r="R6" s="56">
         <v>0.05</v>
       </c>
-      <c r="S6" s="57">
+      <c r="S6" s="56">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="21">
@@ -2887,70 +2873,70 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
-        <v>110</v>
+      <c r="B8" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60">
+      <c r="E8" s="58"/>
+      <c r="F8" s="58">
         <f t="shared" ref="F8:G8" si="4">-F7/F5</f>
         <v>0.2422704480399521</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="58">
         <f t="shared" si="4"/>
         <v>0.16062128869842612</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="59">
         <v>0.25</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="59">
         <f>+H8</f>
         <v>0.25</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="59">
         <f t="shared" ref="J8:S8" si="5">+I8</f>
         <v>0.25</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="S8" s="61">
+      <c r="S8" s="59">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="25">
@@ -3018,18 +3004,18 @@
       <c r="B10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
@@ -3098,40 +3084,40 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="57">
+      <c r="H12" s="56">
         <v>0.1</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="56">
         <v>0.1</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="56">
         <v>0.1</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="56">
         <v>0.1</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="56">
         <v>0.1</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="56">
         <v>0.1</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="56">
         <v>0.1</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="56">
         <v>0.1</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="56">
         <v>0.1</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="56">
         <v>0.1</v>
       </c>
-      <c r="R12" s="57">
+      <c r="R12" s="56">
         <v>0.1</v>
       </c>
-      <c r="S12" s="57">
+      <c r="S12" s="56">
         <v>0.1</v>
       </c>
     </row>
@@ -3225,7 +3211,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="20" t="s">
         <v>105</v>
       </c>
     </row>
